--- a/Files/自动化异常测试用例.xlsx
+++ b/Files/自动化异常测试用例.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Study\pytest-auto-api2\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Study\pytest-auto-api2\utils\otherUtils\allureDate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49328BF6-6D36-4A87-9576-766278289F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CBA06F-39C1-4D53-A6A8-DEB272ED1A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="异常用例" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>allureUid</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -91,42 +91,6 @@
   <si>
     <t>响应结果</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>23e053836d985c78</t>
-  </si>
-  <si>
-    <t>未登录状态下新增收藏网址</t>
-  </si>
-  <si>
-    <t>https://www.wanandroid.com/lg/collect/addtool/json</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>{'Content-Type': 'multipart/form-data;'}</t>
-  </si>
-  <si>
-    <t>{'name': '2714', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}</t>
-  </si>
-  <si>
-    <t>{'dependence_case_data': None}</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': -1001, 'AssertType': None}, 'errorMsg': {'jsonpath': '$.errorMsg', 'type': '==', 'value': '请先登录！11', 'AssertType': None}}</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>177ms</t>
-  </si>
-  <si>
-    <t>{'errorCode': -1001, 'errorMsg': '请先登录！'}</t>
   </si>
 </sst>
 </file>
@@ -230,20 +194,20 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D30E69-722C-4FC7-8150-9A3FA348B198}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -533,91 +497,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" customWidth="1"/>
-    <col min="12" max="12" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="5"/>
+    <col min="6" max="6" width="24.77734375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="5"/>
+    <col min="12" max="12" width="23.21875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Files/自动化异常测试用例.xlsx
+++ b/Files/自动化异常测试用例.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Study\pytest-auto-api2\utils\otherUtils\allureDate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Study\pytest-auto-api2\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CBA06F-39C1-4D53-A6A8-DEB272ED1A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2472B3-2637-4C94-ADA4-5D2479E0DB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="异常用例" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>allureUid</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -91,6 +91,111 @@
   <si>
     <t>响应结果</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5485fec8c51a1cfa</t>
+  </si>
+  <si>
+    <t>编辑收藏网址</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/lg/collect/addtool/json</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>{'Content-Type': 'multipart/form-data; boundary=6033bbcd7f4a4e93b88ae0aef4d897ad', 'cookie': 'loginUserName_wanandroid_com=18800000001;token_pass_wanandroid_com=5d9b90bcb70640183e09d1e755ead823;JSESSIONID=5312E81B7CF0510EDF6A9599E0722547;loginUserName=18800000001;token_pass=5d9b90bcb70640183e09d1e755ead823;'}</t>
+  </si>
+  <si>
+    <t>&lt;MultipartEncoder: {'id': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2', 'name': '自动化编辑网址名称', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}&gt;</t>
+  </si>
+  <si>
+    <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'request', 'jsonpath': '$.data.link', 'replace_key': '$.data.id'}]}]</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'name': {'jsonpath': '$.data.name', 'type': '==', 'value': '自动化编辑网址名称', 'AssertType': None}, 'link': {'jsonpath': '$.data.link1', 'type': '==', 'value': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2', 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>293ms</t>
+  </si>
+  <si>
+    <t>{'data': None, 'errorCode': -1, 'errorMsg': 'Failed to convert property value of type \'java.lang.String\' to required type \'int\' for property \'id\'; nested exception is java.lang.NumberFormatException: For input string: "https://gitee.com/yu_xiao_qi/pytest-auto-api2"'}</t>
+  </si>
+  <si>
+    <t>af11e98c17f6a9f5</t>
+  </si>
+  <si>
+    <t>新增收藏网址接口</t>
+  </si>
+  <si>
+    <t>{'cookie': 'loginUserName_wanandroid_com=18800000001;token_pass_wanandroid_com=5d9b90bcb70640183e09d1e755ead823;JSESSIONID=5312E81B7CF0510EDF6A9599E0722547;loginUserName=18800000001;token_pass=5d9b90bcb70640183e09d1e755ead823;'}</t>
+  </si>
+  <si>
+    <t>{'name': '2790', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}</t>
+  </si>
+  <si>
+    <t>{'dependence_case_data': None}</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 1, 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>178ms</t>
+  </si>
+  <si>
+    <t>{'data': {'desc': '', 'icon': '', 'id': 18101, 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2', 'name': '2790', 'order': 0, 'userId': 129462, 'visible': 1}, 'errorCode': 0, 'errorMsg': ''}</t>
+  </si>
+  <si>
+    <t>b2211c856cd438df</t>
+  </si>
+  <si>
+    <t>正常删除收藏网站</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/lg/collect/deletetool/json</t>
+  </si>
+  <si>
+    <t>{'Content-Type': 'multipart/form-data; boundary=9fdbbffa1c344fe493bf4c67f8543529', 'cookie': 'loginUserName_wanandroid_com=18800000001;token_pass_wanandroid_com=5d9b90bcb70640183e09d1e755ead823;JSESSIONID=5312E81B7CF0510EDF6A9599E0722547;loginUserName=18800000001;token_pass=5d9b90bcb70640183e09d1e755ead823;'}</t>
+  </si>
+  <si>
+    <t>&lt;MultipartEncoder: {'id': '18102', 'test': "{'desc': '', 'icon': '', 'id': 18103, 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2', 'name': '9613', 'order': 0, 'userId': 129462, 'visible': 1}"}&gt;</t>
+  </si>
+  <si>
+    <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'response', 'jsonpath': '$.data.id', 'replace_key': '$.data.id'}, {'dependent_type': 'response', 'jsonpath': '$.data', 'replace_key': '$.data.test'}]}]</t>
+  </si>
+  <si>
+    <t>779ms</t>
+  </si>
+  <si>
+    <t>{'data': None, 'errorCode': 0, 'errorMsg': ''}</t>
+  </si>
+  <si>
+    <t>b9ba409bf5aad79c</t>
+  </si>
+  <si>
+    <t>未登录状态下新增收藏网址</t>
+  </si>
+  <si>
+    <t>{'Content-Type': 'multipart/form-data; boundary=9496b34aacc34217bc259af5678b951d'}</t>
+  </si>
+  <si>
+    <t>&lt;MultipartEncoder: {'name': '3498', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}&gt;</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': -10011, 'AssertType': None}, 'errorMsg': {'jsonpath': '$.errorMsg', 'type': '==', 'value': '请先登录！', 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>164ms</t>
+  </si>
+  <si>
+    <t>{'errorCode': -1001, 'errorMsg': '请先登录！'}</t>
   </si>
 </sst>
 </file>
@@ -489,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D30E69-722C-4FC7-8150-9A3FA348B198}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -548,6 +653,158 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:12" ht="207" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/自动化异常测试用例.xlsx
+++ b/Files/自动化异常测试用例.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Study\pytest-auto-api2\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Study\pytest-auto-api2\utils\otherUtils\allureDate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2472B3-2637-4C94-ADA4-5D2479E0DB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CBA06F-39C1-4D53-A6A8-DEB272ED1A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="异常用例" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>allureUid</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -91,111 +91,6 @@
   <si>
     <t>响应结果</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5485fec8c51a1cfa</t>
-  </si>
-  <si>
-    <t>编辑收藏网址</t>
-  </si>
-  <si>
-    <t>https://www.wanandroid.com/lg/collect/addtool/json</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>{'Content-Type': 'multipart/form-data; boundary=6033bbcd7f4a4e93b88ae0aef4d897ad', 'cookie': 'loginUserName_wanandroid_com=18800000001;token_pass_wanandroid_com=5d9b90bcb70640183e09d1e755ead823;JSESSIONID=5312E81B7CF0510EDF6A9599E0722547;loginUserName=18800000001;token_pass=5d9b90bcb70640183e09d1e755ead823;'}</t>
-  </si>
-  <si>
-    <t>&lt;MultipartEncoder: {'id': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2', 'name': '自动化编辑网址名称', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}&gt;</t>
-  </si>
-  <si>
-    <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'request', 'jsonpath': '$.data.link', 'replace_key': '$.data.id'}]}]</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'name': {'jsonpath': '$.data.name', 'type': '==', 'value': '自动化编辑网址名称', 'AssertType': None}, 'link': {'jsonpath': '$.data.link1', 'type': '==', 'value': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2', 'AssertType': None}}</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>293ms</t>
-  </si>
-  <si>
-    <t>{'data': None, 'errorCode': -1, 'errorMsg': 'Failed to convert property value of type \'java.lang.String\' to required type \'int\' for property \'id\'; nested exception is java.lang.NumberFormatException: For input string: "https://gitee.com/yu_xiao_qi/pytest-auto-api2"'}</t>
-  </si>
-  <si>
-    <t>af11e98c17f6a9f5</t>
-  </si>
-  <si>
-    <t>新增收藏网址接口</t>
-  </si>
-  <si>
-    <t>{'cookie': 'loginUserName_wanandroid_com=18800000001;token_pass_wanandroid_com=5d9b90bcb70640183e09d1e755ead823;JSESSIONID=5312E81B7CF0510EDF6A9599E0722547;loginUserName=18800000001;token_pass=5d9b90bcb70640183e09d1e755ead823;'}</t>
-  </si>
-  <si>
-    <t>{'name': '2790', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}</t>
-  </si>
-  <si>
-    <t>{'dependence_case_data': None}</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 1, 'AssertType': None}}</t>
-  </si>
-  <si>
-    <t>178ms</t>
-  </si>
-  <si>
-    <t>{'data': {'desc': '', 'icon': '', 'id': 18101, 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2', 'name': '2790', 'order': 0, 'userId': 129462, 'visible': 1}, 'errorCode': 0, 'errorMsg': ''}</t>
-  </si>
-  <si>
-    <t>b2211c856cd438df</t>
-  </si>
-  <si>
-    <t>正常删除收藏网站</t>
-  </si>
-  <si>
-    <t>https://www.wanandroid.com/lg/collect/deletetool/json</t>
-  </si>
-  <si>
-    <t>{'Content-Type': 'multipart/form-data; boundary=9fdbbffa1c344fe493bf4c67f8543529', 'cookie': 'loginUserName_wanandroid_com=18800000001;token_pass_wanandroid_com=5d9b90bcb70640183e09d1e755ead823;JSESSIONID=5312E81B7CF0510EDF6A9599E0722547;loginUserName=18800000001;token_pass=5d9b90bcb70640183e09d1e755ead823;'}</t>
-  </si>
-  <si>
-    <t>&lt;MultipartEncoder: {'id': '18102', 'test': "{'desc': '', 'icon': '', 'id': 18103, 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2', 'name': '9613', 'order': 0, 'userId': 129462, 'visible': 1}"}&gt;</t>
-  </si>
-  <si>
-    <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'response', 'jsonpath': '$.data.id', 'replace_key': '$.data.id'}, {'dependent_type': 'response', 'jsonpath': '$.data', 'replace_key': '$.data.test'}]}]</t>
-  </si>
-  <si>
-    <t>779ms</t>
-  </si>
-  <si>
-    <t>{'data': None, 'errorCode': 0, 'errorMsg': ''}</t>
-  </si>
-  <si>
-    <t>b9ba409bf5aad79c</t>
-  </si>
-  <si>
-    <t>未登录状态下新增收藏网址</t>
-  </si>
-  <si>
-    <t>{'Content-Type': 'multipart/form-data; boundary=9496b34aacc34217bc259af5678b951d'}</t>
-  </si>
-  <si>
-    <t>&lt;MultipartEncoder: {'name': '3498', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}&gt;</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': -10011, 'AssertType': None}, 'errorMsg': {'jsonpath': '$.errorMsg', 'type': '==', 'value': '请先登录！', 'AssertType': None}}</t>
-  </si>
-  <si>
-    <t>164ms</t>
-  </si>
-  <si>
-    <t>{'errorCode': -1001, 'errorMsg': '请先登录！'}</t>
   </si>
 </sst>
 </file>
@@ -594,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D30E69-722C-4FC7-8150-9A3FA348B198}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -653,158 +548,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="207" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="193.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/自动化异常测试用例.xlsx
+++ b/Files/自动化异常测试用例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Study\pytest-auto-api2\utils\otherUtils\allureDate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_code\pytest-auto-api2\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CBA06F-39C1-4D53-A6A8-DEB272ED1A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DE0D74-A1CA-4803-A28B-A63E8EEE8518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="16200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="异常用例" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>allureUid</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -91,6 +91,43 @@
   <si>
     <t>响应结果</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6cf63aeed7942b1</t>
+  </si>
+  <si>
+    <t>新增收藏网址接口</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/lg/collect/addtool/json</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>PARAMS</t>
+  </si>
+  <si>
+    <t>{'cookie': '$cache{login_cookie}'}</t>
+  </si>
+  <si>
+    <t>{'name': '自动化', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}</t>
+  </si>
+  <si>
+    <t>{'dependence_case_data': None}</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>210ms</t>
+  </si>
+  <si>
+    <t>ValueError: jsonpath提取失败，替换内容: {'data': {'desc': '', 'icon': '', 'id': 37321, 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2,https://gitee.com/yu_xiao_qi/pytest-auto-api2', 'name': '自动化,自动化', 'order': 0, 'userId': 129462, 'visible': 1}, 'errorCode': 0, 'errorMsg': ''} 
+jsonpath: $.data.id1</t>
   </si>
 </sst>
 </file>
@@ -489,28 +526,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D30E69-722C-4FC7-8150-9A3FA348B198}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.9140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" style="5" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="6" width="24.77734375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.4140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="8.9140625" style="5"/>
+    <col min="6" max="6" width="24.75" style="5" customWidth="1"/>
     <col min="7" max="7" width="29.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="5"/>
-    <col min="12" max="12" width="23.21875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.08203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.4140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="22.58203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.9140625" style="5"/>
+    <col min="12" max="12" width="23.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -546,6 +583,44 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="182" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Files/自动化异常测试用例.xlsx
+++ b/Files/自动化异常测试用例.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_code\pytest-auto-api2\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DE0D74-A1CA-4803-A28B-A63E8EEE8518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6617DF60-0614-4AC9-B8CB-1B627947F776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="16200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>allureUid</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -93,10 +93,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>6cf63aeed7942b1</t>
-  </si>
-  <si>
-    <t>新增收藏网址接口</t>
+    <t>7f5e00a37fbb962</t>
+  </si>
+  <si>
+    <t>未登录状态下新增收藏网址</t>
   </si>
   <si>
     <t>https://www.wanandroid.com/lg/collect/addtool/json</t>
@@ -105,29 +105,25 @@
     <t>POST</t>
   </si>
   <si>
-    <t>PARAMS</t>
-  </si>
-  <si>
-    <t>{'cookie': '$cache{login_cookie}'}</t>
-  </si>
-  <si>
-    <t>{'name': '自动化', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}</t>
-  </si>
-  <si>
-    <t>{'dependence_case_data': None}</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}}</t>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Type': 'multipart/form-data; boundary=c82598951910436692933956ce69ee88', 'Content-Length': '281'}</t>
+  </si>
+  <si>
+    <t>{'name': '自动生成收藏网址4360', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>210ms</t>
-  </si>
-  <si>
-    <t>ValueError: jsonpath提取失败，替换内容: {'data': {'desc': '', 'icon': '', 'id': 37321, 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2,https://gitee.com/yu_xiao_qi/pytest-auto-api2', 'name': '自动化,自动化', 'order': 0, 'userId': 129462, 'visible': 1}, 'errorCode': 0, 'errorMsg': ''} 
-jsonpath: $.data.id1</t>
+    <t>{'status_code': 200, 'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': -1001, 'AssertType': None}, 'errorMsg': {'jsonpath': '$.errorMsg', 'type': '==', 'value': '请先登录！11', 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>180ms</t>
+  </si>
+  <si>
+    <t>{"errorCode":-1001,"errorMsg":"请先登录！"}</t>
   </si>
 </sst>
 </file>
@@ -585,7 +581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="182" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="126" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -614,13 +610,13 @@
         <v>20</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Files/自动化异常测试用例.xlsx
+++ b/Files/自动化异常测试用例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_code\pytest-auto-api2\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xyhz\Desktop\pytest-auto-api2\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6617DF60-0614-4AC9-B8CB-1B627947F776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E4494F-A309-4FB5-A277-EDC5BAAB8355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="16200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="16200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="异常用例" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="84">
   <si>
     <t>allureUid</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -93,7 +93,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>7f5e00a37fbb962</t>
+    <t>2b04a1ee62a9227d</t>
   </si>
   <si>
     <t>未登录状态下新增收藏网址</t>
@@ -108,22 +108,205 @@
     <t>DATA</t>
   </si>
   <si>
-    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Type': 'multipart/form-data; boundary=c82598951910436692933956ce69ee88', 'Content-Length': '281'}</t>
-  </si>
-  <si>
-    <t>{'name': '自动生成收藏网址4360', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}</t>
+    <t>{'Content-Type': 'multipart/form-data;'}</t>
+  </si>
+  <si>
+    <t>{'name': '自动生成收藏网址2868', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>{'status_code': 200, 'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': -1001, 'AssertType': None}, 'errorMsg': {'jsonpath': '$.errorMsg', 'type': '==', 'value': '请先登录！11', 'AssertType': None}}</t>
-  </si>
-  <si>
-    <t>180ms</t>
-  </si>
-  <si>
-    <t>{"errorCode":-1001,"errorMsg":"请先登录！"}</t>
+    <t>{'status_code': 200, 'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': -1001, 'AssertType': None}, 'errorMsg': {'jsonpath': '$.errorMsg', 'type': '==', 'value': '请先登录！', 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>164ms</t>
+  </si>
+  <si>
+    <t>TypeError: __init__() missing 3 required positional arguments: 'sql_data', 'request_data', and 'response_data'</t>
+  </si>
+  <si>
+    <t>3e0ecbdc7e2bccfe</t>
+  </si>
+  <si>
+    <t>输入非1开头的手机号码</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/user/login</t>
+  </si>
+  <si>
+    <t>{'username': '28800000001', 'password': '12345'}</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': -1, 'AssertType': None}, 'errorMsg': {'jsonpath': '$.errorMsg', 'type': '==', 'value': '账号密码不匹配！', 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>268ms</t>
+  </si>
+  <si>
+    <t>45d741e83ce1f954</t>
+  </si>
+  <si>
+    <t>输入错误的密码</t>
+  </si>
+  <si>
+    <t>{'username': '18800000001', 'password': '12345'}</t>
+  </si>
+  <si>
+    <t>241ms</t>
+  </si>
+  <si>
+    <t>500866d7ff71c5d8</t>
+  </si>
+  <si>
+    <t>登录密码为空</t>
+  </si>
+  <si>
+    <t>{'username': '18800000001', 'password': None}</t>
+  </si>
+  <si>
+    <t>266ms</t>
+  </si>
+  <si>
+    <t>86fc5d4ed17ac739</t>
+  </si>
+  <si>
+    <t>正常获取个人身份信息</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/user/lg/userinfo/json</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{'Content-Type': 'multipart/form-data;', 'cookie': '$cache{login_cookie}'}</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.userInfo.username', 'type': '==', 'value': '18800000001', 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>233ms</t>
+  </si>
+  <si>
+    <t>898df30d33b524d8</t>
+  </si>
+  <si>
+    <t>新增收藏网址接口</t>
+  </si>
+  <si>
+    <t>{'cookie': '$cache{login_cookie}'}</t>
+  </si>
+  <si>
+    <t>{'name': '自动化', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None, 'message': 'errorCode 断言为 0'}}</t>
+  </si>
+  <si>
+    <t>493ms</t>
+  </si>
+  <si>
+    <t>913151d010cb10f3</t>
+  </si>
+  <si>
+    <t>输入手机号码大于于11位</t>
+  </si>
+  <si>
+    <t>{'username': '18800000000', 'password': '12345'}</t>
+  </si>
+  <si>
+    <t>291ms</t>
+  </si>
+  <si>
+    <t>ae66a047e8c43956</t>
+  </si>
+  <si>
+    <t>输入手机号码小于11位</t>
+  </si>
+  <si>
+    <t>{'username': '1880000000', 'password': '12345'}</t>
+  </si>
+  <si>
+    <t>c9dd2b417f600742</t>
+  </si>
+  <si>
+    <t>手机号码为空</t>
+  </si>
+  <si>
+    <t>{'username': None, 'password': '12345'}</t>
+  </si>
+  <si>
+    <t>249ms</t>
+  </si>
+  <si>
+    <t>cc4476ac79f4eace</t>
+  </si>
+  <si>
+    <t>查看收藏网址列表接口</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/lg/collect/usertools/json</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>[{'case_id': 'self', 'dependent_data': [{'dependent_type': 'sqlData', 'jsonpath': '$.business_type', 'set_cache': 'yushaoqi', 'replace_key': None}]}]</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'status_code': 200}</t>
+  </si>
+  <si>
+    <t>2510ms</t>
+  </si>
+  <si>
+    <t>d21c013bc33ec63c</t>
+  </si>
+  <si>
+    <t>正常删除收藏网站</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/lg/collect/deletetool/json</t>
+  </si>
+  <si>
+    <t>{'id': '$cache{collect_delete_tool_01_id}', 'id2': 2}</t>
+  </si>
+  <si>
+    <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'response', 'jsonpath': '$.data.id', 'set_cache': 'collect_delete_tool_01_id', 'replace_key': None}]}]</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>359ms</t>
+  </si>
+  <si>
+    <t>dae6f34d0b67e798</t>
+  </si>
+  <si>
+    <t>手机号码首位包含空格</t>
+  </si>
+  <si>
+    <t>{'username': ' 18867507063 ', 'password': '12345'}</t>
+  </si>
+  <si>
+    <t>244ms</t>
+  </si>
+  <si>
+    <t>e709343368f1c884</t>
+  </si>
+  <si>
+    <t>正常登录</t>
+  </si>
+  <si>
+    <t>{'username': '18800000001', 'password': '123456'}</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.username', 'type': '==', 'value': '18800000001', 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>688ms</t>
   </si>
 </sst>
 </file>
@@ -522,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D30E69-722C-4FC7-8150-9A3FA348B198}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -581,7 +764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="126" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="112" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -616,6 +799,462 @@
         <v>21</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="112" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="112" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="112" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="126" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="70" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="112" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="112" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="112" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="98" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="112" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="112" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="112" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
